--- a/net/sta/2-courl.xlsx
+++ b/net/sta/2-courl.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7827D2C-CB14-4588-ADE0-39723077674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C7F11-07C8-40A6-AC95-FE77FDDFCC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rechnung goniom. Koord." sheetId="2" r:id="rId1"/>
     <sheet name="Hinweise" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -162,9 +155,6 @@
     <t>17</t>
   </si>
   <si>
-    <t>Flur II</t>
-  </si>
-  <si>
     <t>13 Grevel</t>
   </si>
   <si>
@@ -211,6 +201,9 @@
   </si>
   <si>
     <t>48 Lanstrop</t>
+  </si>
+  <si>
+    <t>Flur I Polygon 2</t>
   </si>
 </sst>
 </file>
@@ -879,7 +872,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -1073,7 +1066,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="s">
         <v>18</v>
@@ -1090,7 +1083,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA7" t="s">
         <v>18</v>
@@ -1107,7 +1100,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA8" t="s">
         <v>18</v>
@@ -1124,7 +1117,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA9" t="s">
         <v>18</v>
@@ -1141,7 +1134,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="s">
         <v>18</v>
@@ -1158,7 +1151,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA11" t="s">
         <v>18</v>
@@ -1175,7 +1168,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA12" t="s">
         <v>18</v>
@@ -1192,7 +1185,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA13" t="s">
         <v>19</v>
@@ -1209,7 +1202,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA14" t="s">
         <v>19</v>
@@ -1359,7 +1352,7 @@
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.45">
@@ -1381,7 +1374,7 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s">
         <v>19</v>
@@ -1398,7 +1391,7 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="s">
         <v>19</v>
@@ -1415,7 +1408,7 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA27" t="s">
         <v>19</v>
@@ -1432,7 +1425,7 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA28" t="s">
         <v>19</v>
@@ -1449,7 +1442,7 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA29" t="s">
         <v>19</v>
@@ -1466,7 +1459,7 @@
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA30" t="s">
         <v>19</v>
@@ -1483,7 +1476,7 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA31" t="s">
         <v>19</v>
